--- a/public/dummy_data.xlsx
+++ b/public/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EB67EB-B6B5-4266-BE59-D22225BCB004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E602CFB-2571-47A6-9910-147FE7651B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35191EB2-B992-4A3E-B4D1-924E029096C0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Md Shajar Abbas</t>
+  </si>
+  <si>
+    <t>Default Number</t>
+  </si>
+  <si>
+    <t>9407300001</t>
+  </si>
+  <si>
+    <t>6360145362</t>
+  </si>
+  <si>
+    <t>Data Tag</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -304,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31B0491-2121-4621-9C60-143C38CBEBB4}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,21 +681,23 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -690,47 +710,53 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -743,47 +769,53 @@
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5">
-        <v>9407300001</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="8">
+      <c r="O2" s="8">
         <v>50000</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -796,54 +828,60 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5">
-        <v>6360145362</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="8">
+      <c r="O3" s="8">
         <v>50000</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="http://mangalbeverage@gmail.com" xr:uid="{143DFDDA-06FB-454B-A116-A40DA1841B90}"/>
-    <hyperlink ref="H3" r:id="rId2" display="http://Sujatakumaripradhan43@gmail.com" xr:uid="{2EFFFF73-5610-4AF5-8405-11FA9F7243CB}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{10AF1363-28FB-4449-8772-B20C5F9610B5}"/>
-    <hyperlink ref="Q2" r:id="rId4" xr:uid="{504B3B00-D864-4AF1-87A9-8F9411F37FA6}"/>
-    <hyperlink ref="N3" r:id="rId5" xr:uid="{3902D2DC-C9C9-41EF-A1CF-C82F24CE0503}"/>
-    <hyperlink ref="Q3" r:id="rId6" xr:uid="{4369A0D0-C194-4C64-AF11-E4876BE0DDA9}"/>
+    <hyperlink ref="J2" r:id="rId1" display="http://mangalbeverage@gmail.com" xr:uid="{143DFDDA-06FB-454B-A116-A40DA1841B90}"/>
+    <hyperlink ref="J3" r:id="rId2" display="http://Sujatakumaripradhan43@gmail.com" xr:uid="{2EFFFF73-5610-4AF5-8405-11FA9F7243CB}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{10AF1363-28FB-4449-8772-B20C5F9610B5}"/>
+    <hyperlink ref="S2" r:id="rId4" xr:uid="{504B3B00-D864-4AF1-87A9-8F9411F37FA6}"/>
+    <hyperlink ref="P3" r:id="rId5" xr:uid="{3902D2DC-C9C9-41EF-A1CF-C82F24CE0503}"/>
+    <hyperlink ref="S3" r:id="rId6" xr:uid="{4369A0D0-C194-4C64-AF11-E4876BE0DDA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
